--- a/test_result_rows_added.xlsx
+++ b/test_result_rows_added.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Fancyname" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Fancycopy" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -284,7 +285,7 @@
 </worksheet>
 </file>
 
-<file path=worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>

--- a/test_result_rows_added.xlsx
+++ b/test_result_rows_added.xlsx
@@ -51,13 +51,16 @@
     <t>Summary. Do not remove but push down</t>
   </si>
   <si>
-    <t>t</t>
+    <t>link</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
     <t>ex1</t>
+  </si>
+  <si>
+    <t>link2</t>
   </si>
   <si>
     <t>ex3</t>
@@ -346,13 +349,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="9">
